--- a/data/trans_camb/P10_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,25</t>
+          <t>-0,19; 11,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,26; -4,02</t>
+          <t>-12,15; -3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 20,5</t>
+          <t>6,53; 19,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -3,78</t>
+          <t>-13,39; -4,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,19</t>
+          <t>5,38; 14,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -5,34</t>
+          <t>-11,24; -5,25</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 150,48</t>
+          <t>-2,19; 152,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,47; -47,01</t>
+          <t>-89,4; -43,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,11; 229,22</t>
+          <t>39,85; 218,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,8; -41,12</t>
+          <t>-83,53; -45,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,61; 151,15</t>
+          <t>42,77; 161,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,65; -56,1</t>
+          <t>-82,98; -55,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,36</t>
+          <t>-4,29; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,63</t>
+          <t>-8,48; -2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 3,41</t>
+          <t>-4,02; 3,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,79</t>
+          <t>-4,16; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; -1,33</t>
+          <t>-10,14; -1,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,06</t>
+          <t>-7,88; 0,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,87</t>
+          <t>-2,86; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -2,78</t>
+          <t>-8,0; -2,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,61</t>
+          <t>-4,81; 0,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 52,39</t>
+          <t>-40,78; 52,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,54; -38,27</t>
+          <t>-82,77; -40,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 54,09</t>
+          <t>-41,48; 51,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 38,18</t>
+          <t>-24,91; 36,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,83; -9,59</t>
+          <t>-58,17; -12,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -0,66</t>
+          <t>-44,89; 0,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 27,69</t>
+          <t>-21,68; 27,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,25; -26,49</t>
+          <t>-60,95; -29,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 6,2</t>
+          <t>-36,52; 8,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,21</t>
+          <t>-0,24; 5,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,15</t>
+          <t>-2,6; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,52</t>
+          <t>-0,09; 5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,37</t>
+          <t>3,38; 11,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,22</t>
+          <t>-1,25; 5,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,83</t>
+          <t>1,4; 7,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,59</t>
+          <t>2,58; 7,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,85</t>
+          <t>-1,1; 3,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,16</t>
+          <t>1,78; 5,97</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 563,93</t>
+          <t>-15,58; 519,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-73,25; 200,31</t>
+          <t>-74,68; 174,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 455,89</t>
+          <t>-10,35; 509,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,09; 467,49</t>
+          <t>59,77; 558,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 228,32</t>
+          <t>-31,55; 201,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,82; 371,44</t>
+          <t>20,27; 321,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>68,27; 375,96</t>
+          <t>61,4; 347,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 136,33</t>
+          <t>-31,41; 144,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,98; 287,62</t>
+          <t>40,53; 294,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,48</t>
+          <t>2,27; 7,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,02</t>
+          <t>2,99; 10,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,53</t>
+          <t>0,24; 7,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,26; 17,97</t>
+          <t>9,64; 17,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 18,41</t>
+          <t>8,34; 18,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,7</t>
+          <t>-0,86; 7,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,04; 12,15</t>
+          <t>6,72; 11,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,08</t>
+          <t>6,52; 12,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 6,62</t>
+          <t>1,03; 6,55</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,72; 465,01</t>
+          <t>37,63; 561,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>58,29; 674,38</t>
+          <t>60,5; 715,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 426,97</t>
+          <t>-5,3; 462,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,03; 323,33</t>
+          <t>98,24; 321,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>84,4; 329,49</t>
+          <t>79,79; 308,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 140,88</t>
+          <t>-8,85; 129,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>105,76; 311,12</t>
+          <t>99,45; 301,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>101,77; 324,5</t>
+          <t>98,3; 302,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,17; 165,28</t>
+          <t>15,29; 156,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,76</t>
+          <t>-6,04; 2,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 2,14</t>
+          <t>-6,28; 2,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,75; -0,09</t>
+          <t>-7,41; -0,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 17,76</t>
+          <t>4,37; 17,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,09</t>
+          <t>-5,19; 5,47</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,73</t>
+          <t>-2,58; 6,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 8,64</t>
+          <t>0,88; 8,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,67</t>
+          <t>-4,27; 2,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,63</t>
+          <t>-3,49; 2,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,64; 72,13</t>
+          <t>-70,26; 72,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,88; 55,34</t>
+          <t>-70,94; 58,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,5; 8,51</t>
+          <t>-80,14; 7,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41,34; 360,44</t>
+          <t>38,99; 410,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 113,32</t>
+          <t>-48,99; 119,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 148,01</t>
+          <t>-27,9; 140,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,6; 168,96</t>
+          <t>6,29; 171,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 51,39</t>
+          <t>-49,4; 56,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 51,55</t>
+          <t>-38,17; 54,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 11,32</t>
+          <t>3,69; 11,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 9,71</t>
+          <t>2,89; 9,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,28</t>
+          <t>1,98; 7,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,28</t>
+          <t>2,53; 11,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,22; 14,65</t>
+          <t>4,46; 14,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,23</t>
+          <t>0,22; 7,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,82</t>
+          <t>4,28; 10,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,1</t>
+          <t>4,87; 11,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,24</t>
+          <t>2,18; 6,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>101,97; 2092,33</t>
+          <t>120,66; 2003,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>87,98; 2118,82</t>
+          <t>78,74; 2076,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54,26; 1457,48</t>
+          <t>54,08; 1536,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>29,45; 375,62</t>
+          <t>35,96; 439,1</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>56,36; 505,49</t>
+          <t>63,96; 578,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,08; 243,13</t>
+          <t>1,02; 312,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>99,39; 494,04</t>
+          <t>96,47; 521,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>116,82; 541,2</t>
+          <t>118,12; 568,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>43,74; 325,24</t>
+          <t>41,57; 333,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 1,72</t>
+          <t>-3,05; 1,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 3,62</t>
+          <t>-2,15; 3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,25</t>
+          <t>0,33; 6,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,98</t>
+          <t>-5,72; 0,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,0</t>
+          <t>-1,19; 6,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,97</t>
+          <t>-3,06; 6,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,7</t>
+          <t>-3,49; 0,53</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,87</t>
+          <t>-0,62; 4,02</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,76</t>
+          <t>-0,02; 6,0</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 39,85</t>
+          <t>-42,77; 41,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 82,55</t>
+          <t>-31,23; 78,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,9; 160,41</t>
+          <t>3,21; 150,83</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,2; 11,11</t>
+          <t>-46,0; 9,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 69,79</t>
+          <t>-10,53; 70,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 75,95</t>
+          <t>-23,21; 73,22</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 12,29</t>
+          <t>-39,27; 7,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 56,51</t>
+          <t>-7,03; 57,87</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,94; 80,49</t>
+          <t>0,27; 82,93</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,58</t>
+          <t>-2,19; 3,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -1,68</t>
+          <t>-6,65; -1,74</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,57; -0,32</t>
+          <t>-5,4; -0,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,56</t>
+          <t>3,06; 9,43</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,75</t>
+          <t>-4,51; 1,26</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,71</t>
+          <t>2,97; 9,82</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,09</t>
+          <t>1,42; 5,91</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,73; -0,9</t>
+          <t>-4,79; -0,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,07</t>
+          <t>-0,37; 4,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 51,9</t>
+          <t>-23,71; 53,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -21,62</t>
+          <t>-68,27; -24,77</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-55,69; -4,0</t>
+          <t>-54,84; -0,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>23,97; 115,95</t>
+          <t>26,0; 114,56</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 23,5</t>
+          <t>-40,67; 15,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>26,4; 116,74</t>
+          <t>24,31; 121,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,01; 75,96</t>
+          <t>13,51; 74,78</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -11,17</t>
+          <t>-47,95; -10,55</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 53,12</t>
+          <t>-3,4; 50,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,34</t>
+          <t>-0,08; 2,4</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 1,11</t>
+          <t>-1,12; 1,22</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,4</t>
+          <t>-1,02; 1,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,64</t>
+          <t>3,58; 6,92</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,4</t>
+          <t>1,32; 4,26</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,6</t>
+          <t>0,44; 3,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,22</t>
+          <t>2,21; 4,3</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,4; 2,44</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,43</t>
+          <t>0,3; 2,3</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 44,0</t>
+          <t>-1,17; 43,93</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 21,52</t>
+          <t>-17,3; 22,54</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 25,74</t>
+          <t>-15,49; 26,27</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,14; 75,35</t>
+          <t>35,19; 79,23</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,89; 51,67</t>
+          <t>12,71; 48,66</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>5,93; 40,75</t>
+          <t>4,54; 41,05</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>25,88; 58,26</t>
+          <t>26,82; 58,6</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,22</t>
+          <t>4,79; 32,85</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>4,75; 33,6</t>
+          <t>3,75; 31,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P10_1_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 11,94</t>
+          <t>-0,26; 11,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; -3,78</t>
+          <t>-12,14; -3,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 19,99</t>
+          <t>6,8; 20,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -4,39</t>
+          <t>-12,88; -4,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 14,3</t>
+          <t>5,52; 14,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,24; -5,25</t>
+          <t>-11,1; -4,96</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 152,77</t>
+          <t>-2,33; 159,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,4; -43,57</t>
+          <t>-89,99; -43,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,85; 218,28</t>
+          <t>39,59; 224,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,53; -45,21</t>
+          <t>-83,44; -46,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,77; 161,41</t>
+          <t>41,53; 153,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-82,98; -55,33</t>
+          <t>-82,77; -54,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,35</t>
+          <t>-3,7; 3,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -2,85</t>
+          <t>-8,42; -2,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,33</t>
+          <t>-3,72; 3,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 4,6</t>
+          <t>-4,69; 4,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -1,64</t>
+          <t>-10,14; -1,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 0,01</t>
+          <t>-8,32; -0,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 2,79</t>
+          <t>-3,18; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; -2,95</t>
+          <t>-8,0; -3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,85</t>
+          <t>-4,86; 0,59</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,78; 52,89</t>
+          <t>-36,21; 59,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-82,77; -40,22</t>
+          <t>-81,86; -36,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 51,31</t>
+          <t>-38,28; 65,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 36,07</t>
+          <t>-26,56; 36,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,17; -12,18</t>
+          <t>-57,66; -11,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 0,26</t>
+          <t>-47,59; -2,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 27,28</t>
+          <t>-25,06; 26,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-60,95; -29,07</t>
+          <t>-60,48; -28,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 8,47</t>
+          <t>-37,17; 5,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,9</t>
+          <t>0,06; 6,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,98</t>
+          <t>-2,79; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 5,62</t>
+          <t>0,05; 5,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,43</t>
+          <t>3,69; 11,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 5,13</t>
+          <t>-1,36; 5,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,57</t>
+          <t>1,35; 7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,48</t>
+          <t>2,56; 7,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,01</t>
+          <t>-1,36; 2,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,97</t>
+          <t>1,78; 5,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 519,34</t>
+          <t>-14,55; 508,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-74,68; 174,94</t>
+          <t>-76,17; 183,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 509,55</t>
+          <t>-11,52; 440,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>59,77; 558,75</t>
+          <t>62,75; 523,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 201,99</t>
+          <t>-31,83; 248,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,27; 321,72</t>
+          <t>23,57; 351,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,4; 347,63</t>
+          <t>51,31; 320,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 144,94</t>
+          <t>-36,6; 134,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,53; 294,1</t>
+          <t>34,82; 262,43</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,87</t>
+          <t>2,05; 7,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,22</t>
+          <t>2,96; 9,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 7,01</t>
+          <t>0,27; 7,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,67</t>
+          <t>9,56; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,34; 18,06</t>
+          <t>8,09; 18,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,52</t>
+          <t>-1,07; 7,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,86</t>
+          <t>6,77; 11,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,52; 12,67</t>
+          <t>6,57; 12,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,55</t>
+          <t>0,88; 6,32</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>37,63; 561,26</t>
+          <t>41,02; 516,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>60,5; 715,85</t>
+          <t>61,97; 640,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 462,48</t>
+          <t>-1,89; 452,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>98,24; 321,53</t>
+          <t>91,1; 308,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>79,79; 308,72</t>
+          <t>81,86; 309,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 129,18</t>
+          <t>-11,7; 129,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>99,45; 301,07</t>
+          <t>98,93; 296,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>98,3; 302,63</t>
+          <t>101,82; 322,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,29; 156,28</t>
+          <t>10,15; 148,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,97</t>
+          <t>-6,37; 2,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,29</t>
+          <t>-6,88; 1,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -0,05</t>
+          <t>-7,55; -0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,37; 17,53</t>
+          <t>4,68; 17,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,47</t>
+          <t>-4,86; 5,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 6,57</t>
+          <t>-2,02; 7,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,93</t>
+          <t>0,58; 8,57</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,57</t>
+          <t>-4,27; 2,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,63</t>
+          <t>-3,19; 2,49</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,26; 72,36</t>
+          <t>-73,37; 62,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-70,94; 58,81</t>
+          <t>-70,95; 55,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 7,94</t>
+          <t>-81,11; 6,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>38,99; 410,18</t>
+          <t>41,15; 360,47</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,99; 119,17</t>
+          <t>-49,88; 132,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 140,07</t>
+          <t>-23,4; 167,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,29; 171,98</t>
+          <t>4,86; 166,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 56,62</t>
+          <t>-49,91; 52,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 54,15</t>
+          <t>-36,65; 52,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,0</t>
+          <t>3,59; 10,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,91</t>
+          <t>2,41; 9,59</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,17</t>
+          <t>2,01; 7,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,15</t>
+          <t>2,8; 11,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,86</t>
+          <t>4,18; 15,01</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,62</t>
+          <t>0,08; 7,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,28; 10,0</t>
+          <t>3,79; 10,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,44</t>
+          <t>4,97; 11,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,6</t>
+          <t>1,97; 6,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>120,66; 2003,86</t>
+          <t>89,51; 2150,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>78,74; 2076,18</t>
+          <t>56,83; 1781,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54,08; 1536,36</t>
+          <t>53,29; 1575,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>35,96; 439,1</t>
+          <t>34,47; 424,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>63,96; 578,91</t>
+          <t>57,23; 525,57</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,02; 312,79</t>
+          <t>-0,75; 269,09</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>96,47; 521,36</t>
+          <t>88,35; 492,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>118,12; 568,83</t>
+          <t>114,2; 584,05</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>41,57; 333,64</t>
+          <t>42,35; 328,96</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 1,68</t>
+          <t>-3,52; 1,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,5</t>
+          <t>-2,27; 3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,55</t>
+          <t>0,42; 6,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,78</t>
+          <t>-5,56; 1,05</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,06</t>
+          <t>-1,17; 5,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 6,7</t>
+          <t>-2,29; 7,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,53</t>
+          <t>-3,78; 0,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 4,02</t>
+          <t>-0,72; 3,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,0</t>
+          <t>0,17; 6,16</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-42,77; 41,7</t>
+          <t>-49,54; 39,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 78,95</t>
+          <t>-34,02; 78,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,21; 150,83</t>
+          <t>1,85; 153,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 9,02</t>
+          <t>-46,67; 11,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 70,26</t>
+          <t>-9,5; 67,35</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 73,22</t>
+          <t>-17,72; 79,23</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 7,75</t>
+          <t>-40,82; 6,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 57,87</t>
+          <t>-9,06; 55,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,27; 82,93</t>
+          <t>3,28; 84,36</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,6</t>
+          <t>-2,59; 3,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,65; -1,74</t>
+          <t>-6,67; -1,73</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,4; -0,08</t>
+          <t>-5,29; -0,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,43</t>
+          <t>3,18; 9,77</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,26</t>
+          <t>-4,68; 1,21</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,82</t>
+          <t>3,29; 9,94</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,91</t>
+          <t>1,36; 5,89</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,79; -0,85</t>
+          <t>-4,67; -0,83</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,1</t>
+          <t>-0,29; 3,98</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 53,39</t>
+          <t>-27,38; 51,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-68,27; -24,77</t>
+          <t>-66,59; -22,65</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-54,84; -0,91</t>
+          <t>-55,75; -0,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>26,0; 114,56</t>
+          <t>28,89; 118,48</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 15,59</t>
+          <t>-42,72; 14,19</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>24,31; 121,22</t>
+          <t>27,79; 124,05</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>13,51; 74,78</t>
+          <t>14,75; 75,32</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-47,95; -10,55</t>
+          <t>-47,87; -11,28</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 50,52</t>
+          <t>-3,01; 49,04</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,4</t>
+          <t>-0,22; 2,17</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,22</t>
+          <t>-1,22; 1,17</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,44</t>
+          <t>-1,02; 1,34</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,92</t>
+          <t>3,69; 6,91</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,26</t>
+          <t>1,17; 4,38</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,59</t>
+          <t>0,5; 3,64</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,3</t>
+          <t>2,17; 4,23</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,44</t>
+          <t>0,51; 2,47</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,3</t>
+          <t>0,32; 2,22</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 43,93</t>
+          <t>-3,53; 39,25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 22,54</t>
+          <t>-18,7; 21,36</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 26,27</t>
+          <t>-15,33; 23,78</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35,19; 79,23</t>
+          <t>37,59; 80,64</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>12,71; 48,66</t>
+          <t>11,87; 50,58</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>4,54; 41,05</t>
+          <t>5,05; 42,28</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>26,82; 58,6</t>
+          <t>26,41; 57,37</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>4,79; 32,85</t>
+          <t>6,46; 33,7</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>3,75; 31,53</t>
+          <t>3,78; 30,04</t>
         </is>
       </c>
     </row>
